--- a/Lernfeld 4 Teil 5/SYS.2.2.3/SYS.2.2.3.A6 Maßnahmen.xlsx
+++ b/Lernfeld 4 Teil 5/SYS.2.2.3/SYS.2.2.3.A6 Maßnahmen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Downloads\Lernfeld 4 Teil 5\SYS.2.2.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Downloads\Neuer Ordner\Lernfeld 4\Lernfeld 4 Teil 5\SYS.2.2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1282E061-7382-471C-83C7-FD17347BD2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C7E12-40EE-4068-869F-42D7657B2D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Anforderung</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Unklar ob es einen Verzeichnisdienst gibt; Einen integrieren falls nicht vorhanden</t>
+  </si>
+  <si>
+    <t>Begründung</t>
+  </si>
+  <si>
+    <t>Zur Authentifizierung und als Backup falls der PC gestört ist</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +430,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
